--- a/excelTemplate/DemurrageAdminTemplate.xlsx
+++ b/excelTemplate/DemurrageAdminTemplate.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$1</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>S/N</t>
   </si>
@@ -258,6 +261,22 @@
   </si>
   <si>
     <t>&lt;%=rs1.balance%&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bank Reference#</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check#</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.bank_reference_no%&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.check_no%&gt;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -368,7 +387,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -427,6 +446,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -731,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -746,16 +768,18 @@
     <col min="6" max="6" width="20.5" style="19" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="15" style="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.375" style="19" customWidth="1"/>
-    <col min="10" max="10" width="22.625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="46.75" style="19" customWidth="1"/>
     <col min="11" max="11" width="25" style="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.125" style="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.75" style="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="16.125" style="19" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="19"/>
+    <col min="12" max="12" width="21.625" style="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.125" style="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.75" style="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="16.125" style="19" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="47.1" customHeight="1">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="47.1" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -793,19 +817,25 @@
         <v>33</v>
       </c>
       <c r="M1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2" s="19" t="s">
         <v>23</v>
       </c>
@@ -842,20 +872,27 @@
       <c r="L2" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="P2" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="Q2" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="R2" s="19" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/excelTemplate/DemurrageAdminTemplate.xlsx
+++ b/excelTemplate/DemurrageAdminTemplate.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\zt\zhongtan-server\excelTemplate\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28005" windowHeight="11745"/>
   </bookViews>
@@ -12,14 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>S/N</t>
   </si>
@@ -220,10 +225,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;%=rs1.payer%&gt;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;%=rs1.receipt_date%&gt;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -277,14 +278,29 @@
   </si>
   <si>
     <t>&lt;%=rs1.check_no%&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demurrage party</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.invoice_masterbi_demurrage_party%&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deposit party</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.invoice_masterbi_deposit_party%&gt;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,6 +477,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -752,14 +771,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="19"/>
     <col min="2" max="2" width="23.875" style="19" bestFit="1" customWidth="1"/>
@@ -768,18 +787,19 @@
     <col min="6" max="6" width="20.5" style="19" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="15" style="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.375" style="19" customWidth="1"/>
-    <col min="10" max="10" width="46.75" style="19" customWidth="1"/>
-    <col min="11" max="11" width="25" style="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.625" style="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.125" style="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.75" style="19" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="16.125" style="19" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="19"/>
+    <col min="10" max="10" width="43.125" style="19" customWidth="1"/>
+    <col min="11" max="11" width="46.75" style="19" customWidth="1"/>
+    <col min="12" max="12" width="25" style="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.625" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.125" style="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.75" style="19" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="16.125" style="19" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="47.1" customHeight="1">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -807,35 +827,38 @@
       <c r="I1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="18" t="s">
+      <c r="J1" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="13" t="s">
-        <v>48</v>
-      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
         <v>23</v>
       </c>
@@ -863,36 +886,39 @@
       <c r="I2" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="M2" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" s="20" t="s">
+      <c r="N2" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="O2" s="19" t="s">
+      <c r="P2" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="R2" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="S2" s="19" t="s">
         <v>51</v>
-      </c>
-      <c r="R2" s="19" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R1"/>
+  <autoFilter ref="A1:S1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -900,21 +926,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="10.25" customWidth="1"/>
     <col min="5" max="5" width="6.375" customWidth="1"/>
     <col min="13" max="13" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="47.1" customHeight="1">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -993,12 +1019,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excelTemplate/DemurrageAdminTemplate.xlsx
+++ b/excelTemplate/DemurrageAdminTemplate.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
   <si>
     <t>S/N</t>
   </si>
@@ -52,6 +52,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>/</t>
@@ -100,6 +101,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（</t>
@@ -295,12 +297,52 @@
     <t>&lt;%=rs1.invoice_masterbi_deposit_party%&gt;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>Vessel</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Voyage</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.vessel_name%&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.vessel_voyage%&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Free Days</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.free_days%&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Staring Date</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.staring_date%&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overdue Days</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.overdue_days%&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,13 +378,30 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -403,7 +462,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -465,6 +524,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -528,7 +590,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -563,7 +625,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -772,7 +834,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -784,22 +846,24 @@
     <col min="2" max="2" width="23.875" style="19" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="17.625" style="19" customWidth="1"/>
     <col min="5" max="5" width="18.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.375" style="19" customWidth="1"/>
-    <col min="10" max="10" width="43.125" style="19" customWidth="1"/>
-    <col min="11" max="11" width="46.75" style="19" customWidth="1"/>
-    <col min="12" max="12" width="25" style="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.625" style="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.125" style="19" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.75" style="19" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="16.125" style="19" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="19"/>
+    <col min="6" max="7" width="18.375" style="19" customWidth="1"/>
+    <col min="8" max="8" width="20.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="20.5" style="19" customWidth="1"/>
+    <col min="12" max="13" width="15" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.375" style="19" customWidth="1"/>
+    <col min="15" max="15" width="43.125" style="19" customWidth="1"/>
+    <col min="16" max="16" width="46.75" style="19" customWidth="1"/>
+    <col min="17" max="17" width="25" style="19" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.625" style="19" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.125" style="19" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.75" style="19" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="16.125" style="19" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -815,50 +879,65 @@
       <c r="E1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="I1" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="O1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="Q1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
         <v>23</v>
       </c>
@@ -874,51 +953,66 @@
       <c r="E2" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="I2" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="M2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="N2" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="O2" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="P2" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="Q2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="R2" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="S2" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="T2" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="U2" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="V2" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="W2" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="X2" s="19" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S1"/>
+  <autoFilter ref="A1:X1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/excelTemplate/DemurrageAdminTemplate.xlsx
+++ b/excelTemplate/DemurrageAdminTemplate.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Y$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>S/N</t>
   </si>
@@ -335,6 +335,14 @@
   </si>
   <si>
     <t>&lt;%=rs1.overdue_days%&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Invoice</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.invoice_no%&gt;</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -834,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -850,20 +858,20 @@
     <col min="8" max="8" width="20.5" style="19" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="20.5" style="19" customWidth="1"/>
     <col min="12" max="13" width="15" style="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.375" style="19" customWidth="1"/>
-    <col min="15" max="15" width="43.125" style="19" customWidth="1"/>
-    <col min="16" max="16" width="46.75" style="19" customWidth="1"/>
-    <col min="17" max="17" width="25" style="19" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.625" style="19" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.125" style="19" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.75" style="19" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="16.125" style="19" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="19"/>
+    <col min="14" max="15" width="24.375" style="19" customWidth="1"/>
+    <col min="16" max="16" width="43.125" style="19" customWidth="1"/>
+    <col min="17" max="17" width="46.75" style="19" customWidth="1"/>
+    <col min="18" max="18" width="25" style="19" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.625" style="19" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.125" style="19" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.75" style="19" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="16.125" style="19" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -907,37 +915,40 @@
         <v>31</v>
       </c>
       <c r="O1" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="R1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Y1" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
         <v>23</v>
       </c>
@@ -980,39 +991,42 @@
       <c r="N2" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="Q2" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="R2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="S2" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="T2" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="U2" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="U2" s="19" t="s">
+      <c r="V2" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="V2" s="19" t="s">
+      <c r="W2" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="W2" s="19" t="s">
+      <c r="X2" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="X2" s="19" t="s">
+      <c r="Y2" s="19" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X1"/>
+  <autoFilter ref="A1:Y1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/excelTemplate/DemurrageAdminTemplate.xlsx
+++ b/excelTemplate/DemurrageAdminTemplate.xlsx
@@ -171,10 +171,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Arrival Date</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Return Date</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -344,6 +340,10 @@
   <si>
     <t>&lt;%=rs1.invoice_no%&gt;</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discharge Date</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -844,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -888,64 +888,64 @@
         <v>27</v>
       </c>
       <c r="F1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>61</v>
-      </c>
       <c r="H1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="N1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="O1" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="R1" s="18" t="s">
+      <c r="S1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="13" t="s">
-        <v>33</v>
-      </c>
       <c r="T1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="U1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="U1" s="13" t="s">
-        <v>53</v>
-      </c>
       <c r="V1" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Y1" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="Y1" s="13" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.15">
@@ -953,76 +953,76 @@
         <v>23</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="F2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="19" t="s">
+      <c r="I2" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="L2" s="19" t="s">
+      <c r="M2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="N2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="O2" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="R2" s="19" t="s">
+      <c r="S2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="19" t="s">
-        <v>43</v>
-      </c>
       <c r="T2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="U2" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="U2" s="20" t="s">
-        <v>55</v>
-      </c>
       <c r="V2" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="19" t="s">
+      <c r="X2" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="X2" s="19" t="s">
+      <c r="Y2" s="19" t="s">
         <v>50</v>
-      </c>
-      <c r="Y2" s="19" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/excelTemplate/DemurrageAdminTemplate.xlsx
+++ b/excelTemplate/DemurrageAdminTemplate.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\zt\zhongtan-server\excelTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liudong/workspace/xiangmeng/git/zhongtan/zhongtan-server/excelTemplate/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E617BF5E-E606-4242-8269-2833926C571F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28005" windowHeight="11745"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28000" windowHeight="11740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,14 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Y$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Z$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>S/N</t>
   </si>
@@ -345,12 +346,20 @@
     <t>Discharge Date</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>B/C</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.bank%&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,6 +423,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -470,32 +480,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -510,36 +517,27 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -556,9 +554,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -596,9 +594,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -633,7 +631,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -668,7 +666,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -841,192 +839,197 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9" style="19"/>
-    <col min="2" max="2" width="23.875" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18.375" style="19" customWidth="1"/>
-    <col min="8" max="8" width="20.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="20.5" style="19" customWidth="1"/>
-    <col min="12" max="13" width="15" style="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="24.375" style="19" customWidth="1"/>
-    <col min="16" max="16" width="43.125" style="19" customWidth="1"/>
-    <col min="17" max="17" width="46.75" style="19" customWidth="1"/>
-    <col min="18" max="18" width="25" style="19" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.625" style="19" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.125" style="19" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.75" style="19" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="16.125" style="19" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="19"/>
+    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="20.5" customWidth="1"/>
+    <col min="12" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="24.33203125" customWidth="1"/>
+    <col min="16" max="16" width="43.1640625" customWidth="1"/>
+    <col min="17" max="17" width="46.6640625" customWidth="1"/>
+    <col min="18" max="18" width="25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.1640625" customWidth="1"/>
+    <col min="21" max="21" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="47" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="U1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="W1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="X1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Y1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Z1" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:26">
+      <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" t="s">
         <v>66</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" t="s">
         <v>70</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="P2" t="s">
         <v>56</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="Q2" t="s">
         <v>58</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="R2" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="S2" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="T2" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="U2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="U2" s="20" t="s">
+      <c r="V2" t="s">
         <v>54</v>
       </c>
-      <c r="V2" s="19" t="s">
+      <c r="W2" t="s">
         <v>47</v>
       </c>
-      <c r="W2" s="19" t="s">
+      <c r="X2" t="s">
         <v>48</v>
       </c>
-      <c r="X2" s="19" t="s">
+      <c r="Y2" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" s="19" t="s">
+      <c r="Z2" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y1"/>
+  <autoFilter ref="A1:Z1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1034,21 +1037,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="5" max="5" width="6.375" customWidth="1"/>
-    <col min="13" max="13" width="6.375" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="47" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1070,52 +1073,52 @@
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1127,12 +1130,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
